--- a/WorkBot/main/backend/ordering/OrderFiles/US Foods/US Foods_Triphammer_20250618.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/US Foods/US Foods_Triphammer_20250618.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,6 +934,438 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7649528</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Dirty Chip - Cracked Pepper (2oz)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>8600421</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Dirty Chip - Jalapeno Hot (2oz)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>109.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>8910127</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dirty Chip - Maui Onion Pot (2oz)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2559979</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dirty Chip - Salt &amp; Vinegar (2oz)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>36.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>6426621</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dirty Chip - Sea Salted (2oz)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>114.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>8495343</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Dirty Chip - Sour Cream &amp; Onion (2oz)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1025748</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Peanut Butter - Creamy</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>54.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>54.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>8656480</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PKT Mayo</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1667864</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Employee Water</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>6435380</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hals - Lime</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5607194</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hals - Lemon</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4688660</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hals - Black Cherry</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1138748</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nirvana Water - 1.5 Liter</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1084187</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Tractor - Peach Mango</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7196012</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bagel - Plain GF</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>45.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>5614176</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bread - GF</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>43.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
